--- a/sample/施設使用一覧.xlsx
+++ b/sample/施設使用一覧.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-3955136154347342264" xfId="1" hidden="0"/>
-    <cellStyle name="-4237346631242001561" xfId="2" hidden="0"/>
+    <cellStyle name="6924734698352458816" xfId="1" hidden="0"/>
+    <cellStyle name="7680980541123374575" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
